--- a/data/trans_camb/Q23_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/Q23_R2-Edad-trans_camb.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 11,88</t>
+          <t>-9,79; 11,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 21,87</t>
+          <t>1,03; 22,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 13,25</t>
+          <t>-1,5; 12,82</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,72; 29,92</t>
+          <t>-20,1; 31,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 56,75</t>
+          <t>2,25; 60,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 32,72</t>
+          <t>-3,06; 30,97</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 6,33</t>
+          <t>-5,56; 6,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 5,09</t>
+          <t>-9,53; 4,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 4,2</t>
+          <t>-5,72; 3,89</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-18,2; 24,47</t>
+          <t>-17,14; 26,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,1; 20,82</t>
+          <t>-30,12; 20,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,06; 15,85</t>
+          <t>-17,83; 14,79</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 9,32</t>
+          <t>-2,7; 9,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 8,29</t>
+          <t>-5,86; 8,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 6,97</t>
+          <t>-2,7; 6,91</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 38,45</t>
+          <t>-8,24; 40,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,68; 37,68</t>
+          <t>-19,55; 38,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 28,15</t>
+          <t>-9,06; 27,56</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 8,73</t>
+          <t>-5,66; 9,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 14,83</t>
+          <t>-0,35; 14,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 8,89</t>
+          <t>-2,18; 9,22</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-14,83; 28,51</t>
+          <t>-14,35; 29,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 105,04</t>
+          <t>-1,47; 103,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 35,02</t>
+          <t>-7,14; 36,3</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-12,98; 5,73</t>
+          <t>-11,95; 5,7</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 10,55</t>
+          <t>-12,24; 10,02</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-12,8; 2,32</t>
+          <t>-12,47; 2,43</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-26,85; 15,01</t>
+          <t>-25,46; 15,26</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-57,18; 193,81</t>
+          <t>-59,56; 170,7</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-30,3; 7,23</t>
+          <t>-30,63; 7,6</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 4,84</t>
+          <t>-10,96; 4,85</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-21,06; 14,57</t>
+          <t>-22,21; 12,86</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 4,81</t>
+          <t>-10,2; 4,79</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-21,78; 11,61</t>
+          <t>-22,1; 12,29</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-83,66; 540,19</t>
+          <t>-85,92; 316,92</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-23,03; 12,92</t>
+          <t>-22,18; 12,44</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 3,63</t>
+          <t>-2,36; 3,57</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 4,74</t>
+          <t>-2,64; 4,84</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 3,24</t>
+          <t>-1,86; 3,15</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 10,68</t>
+          <t>-6,24; 10,61</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 19,11</t>
+          <t>-8,9; 19,4</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 10,26</t>
+          <t>-5,47; 10,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Q23_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/Q23_R2-Edad-trans_camb.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,79; 11,97</t>
+          <t>-9,28; 11,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 22,49</t>
+          <t>0,79; 22,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 12,82</t>
+          <t>-1,48; 14,09</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,1; 31,35</t>
+          <t>-19,15; 28,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,25; 60,23</t>
+          <t>1,62; 56,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 30,97</t>
+          <t>-2,93; 34,95</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 6,96</t>
+          <t>-5,83; 7,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 4,95</t>
+          <t>-9,76; 4,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 3,89</t>
+          <t>-5,61; 4,26</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,14; 26,75</t>
+          <t>-17,15; 28,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,12; 20,49</t>
+          <t>-29,95; 18,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,83; 14,79</t>
+          <t>-17,98; 15,85</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 9,81</t>
+          <t>-3,38; 9,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 8,53</t>
+          <t>-5,59; 8,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 6,91</t>
+          <t>-2,78; 7,22</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 40,53</t>
+          <t>-10,77; 39,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-19,55; 38,38</t>
+          <t>-19,03; 35,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 27,56</t>
+          <t>-9,26; 29,27</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 9,04</t>
+          <t>-5,47; 9,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 14,89</t>
+          <t>-0,5; 14,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 9,22</t>
+          <t>-2,1; 8,68</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 29,55</t>
+          <t>-14,33; 30,07</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 103,3</t>
+          <t>-2,11; 102,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 36,3</t>
+          <t>-6,58; 33,27</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,95; 5,7</t>
+          <t>-12,48; 6,42</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,24; 10,02</t>
+          <t>-13,46; 9,69</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-12,47; 2,43</t>
+          <t>-12,69; 2,15</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-25,46; 15,26</t>
+          <t>-25,91; 16,72</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-59,56; 170,7</t>
+          <t>-62,49; 156,63</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-30,63; 7,6</t>
+          <t>-31,09; 6,7</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-10,96; 4,85</t>
+          <t>-10,67; 6,1</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-22,21; 12,86</t>
+          <t>-23,86; 14,17</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 4,79</t>
+          <t>-10,03; 5,25</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-22,1; 12,29</t>
+          <t>-21,98; 14,31</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-85,92; 316,92</t>
+          <t>-88,07; 367,89</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-22,18; 12,44</t>
+          <t>-22,05; 13,69</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 3,57</t>
+          <t>-2,57; 3,71</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 4,84</t>
+          <t>-2,85; 4,84</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 3,15</t>
+          <t>-1,52; 3,35</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 10,61</t>
+          <t>-6,87; 10,87</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 19,4</t>
+          <t>-9,63; 19,21</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 10,01</t>
+          <t>-4,52; 10,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Q23_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/Q23_R2-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 11,28</t>
+          <t>-8,55; 11,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 22,1</t>
+          <t>0,8; 21,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 14,09</t>
+          <t>-1,45; 13,25</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,15; 28,45</t>
+          <t>-17,72; 29,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,62; 56,4</t>
+          <t>1,44; 56,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 34,95</t>
+          <t>-3,36; 32,72</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 7,38</t>
+          <t>-6,19; 6,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,76; 4,6</t>
+          <t>-9,81; 5,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 4,26</t>
+          <t>-5,51; 4,2</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 28,28</t>
+          <t>-18,2; 24,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-29,95; 18,69</t>
+          <t>-30,1; 20,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,98; 15,85</t>
+          <t>-18,06; 15,85</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 9,56</t>
+          <t>-3,7; 9,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 8,02</t>
+          <t>-5,46; 8,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 7,22</t>
+          <t>-2,5; 6,97</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 39,02</t>
+          <t>-12,08; 38,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-19,03; 35,55</t>
+          <t>-18,68; 37,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 29,27</t>
+          <t>-8,71; 28,15</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 9,08</t>
+          <t>-5,75; 8,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 14,83</t>
+          <t>-0,46; 14,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 8,68</t>
+          <t>-2,07; 8,89</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-14,33; 30,07</t>
+          <t>-14,83; 28,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 102,09</t>
+          <t>-1,02; 105,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 33,27</t>
+          <t>-6,4; 35,02</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 6,42</t>
+          <t>-12,98; 5,73</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,46; 9,69</t>
+          <t>-10,63; 10,55</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-12,69; 2,15</t>
+          <t>-12,8; 2,32</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-25,91; 16,72</t>
+          <t>-26,85; 15,01</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-62,49; 156,63</t>
+          <t>-57,18; 193,81</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-31,09; 6,7</t>
+          <t>-30,3; 7,23</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 6,1</t>
+          <t>-11,01; 4,84</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-23,86; 14,17</t>
+          <t>-21,06; 14,57</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,03; 5,25</t>
+          <t>-10,87; 4,81</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-21,98; 14,31</t>
+          <t>-21,78; 11,61</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-88,07; 367,89</t>
+          <t>-83,66; 540,19</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-22,05; 13,69</t>
+          <t>-23,03; 12,92</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 3,71</t>
+          <t>-2,67; 3,63</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 4,84</t>
+          <t>-2,73; 4,74</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 3,35</t>
+          <t>-1,76; 3,24</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 10,87</t>
+          <t>-7,04; 10,68</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 19,21</t>
+          <t>-9,46; 19,11</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 10,85</t>
+          <t>-5,09; 10,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Q23_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/Q23_R2-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,12 +520,18 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra en el primer cuartil de la edad de comienzo de consumo de tabaco</t>
+          <t>Población cuyo comienzo de consumo de tabaco fue antes de los 15 años</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -506,16 +540,22 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -527,12 +567,42 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012/2007</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2012/2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
         </is>
       </c>
     </row>
@@ -542,11 +612,17 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -561,12 +637,42 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>16,11</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-4,76</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>11,57</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>18,52</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-10,07</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>5,92</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>16,84</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-7,11</t>
         </is>
       </c>
     </row>
@@ -584,12 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-0,06; 34,15</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-23,27; 16,39</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>0,8; 21,87</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-10,47; 42,0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-25,79; 7,14</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>-1,45; 13,25</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1,72; 31,57</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-19,38; 7,73</t>
         </is>
       </c>
     </row>
@@ -607,12 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>36,4%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-10,76%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>26,41%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>42,27%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-22,97%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>13,45%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>38,23%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-16,14%</t>
         </is>
       </c>
     </row>
@@ -630,19 +796,49 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-0,26; 84,52</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-50,79; 40,67</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>1,44; 56,75</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-23,67; 100,9</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-55,0; 17,95</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>-3,36; 32,72</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>4,21; 76,29</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-43,31; 18,78</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -657,12 +853,42 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>6,06</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-0,85</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>-2,38</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>31,71</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-2,4</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>-0,65</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>12,78</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-1,67</t>
         </is>
       </c>
     </row>
@@ -680,12 +906,42 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>-5,57; 20,18</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-10,44; 8,64</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>-9,81; 5,09</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>7,99; 51,56</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-11,12; 6,66</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>-5,51; 4,2</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2,62; 23,75</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-8,49; 4,89</t>
         </is>
       </c>
     </row>
@@ -703,12 +959,42 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>20,37%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-2,87%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>-8,51%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>113,31%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>-8,58%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>-2,24%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>44,01%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-5,76%</t>
         </is>
       </c>
     </row>
@@ -726,19 +1012,49 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
+          <t>-17,99; 71,56</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-32,16; 31,82</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>-30,1; 20,82</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>25,32; 204,89</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>-35,76; 27,3</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
         <is>
           <t>-18,06; 15,85</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>8,19; 85,23</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-28,47; 16,59</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -753,12 +1069,42 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>16,21</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,32</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>1,34</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8,47</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-4,44</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>2,25</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>14,07</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-0,67</t>
         </is>
       </c>
     </row>
@@ -776,12 +1122,42 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
+          <t>-0,19; 31,49</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-4,53; 11,88</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>-5,46; 8,29</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-10,12; 34,44</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-11,15; 2,79</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
         <is>
           <t>-2,5; 6,97</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1,41; 26,72</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-6,3; 4,8</t>
         </is>
       </c>
     </row>
@@ -799,12 +1175,42 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>57,35%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>11,75%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>5,17%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>32,7%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-17,16%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>8,26%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>51,7%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-2,46%</t>
         </is>
       </c>
     </row>
@@ -822,19 +1228,49 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
+          <t>0,27; 119,72</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-15,28; 45,87</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>-18,68; 37,68</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-38,34; 143,92</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-38,75; 11,56</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
         <is>
           <t>-8,71; 28,15</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>3,45; 99,96</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-21,48; 18,24</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -849,12 +1285,42 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>39,4</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-19,36</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>7,45</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>6,15</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>3,73</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
         <is>
           <t>3,35</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>40,37</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-11,17</t>
         </is>
       </c>
     </row>
@@ -872,12 +1338,42 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
+          <t>20,05; 54,31</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-33,93; -4,37</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>-0,46; 14,83</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-21,07; 78,88</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-3,17; 10,72</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
         <is>
           <t>-2,07; 8,89</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>22,79; 56,23</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-24,16; -1,56</t>
         </is>
       </c>
     </row>
@@ -895,12 +1391,42 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
+          <t>114,45%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-56,23%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>39,71%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>32,78%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>19,89%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
         <is>
           <t>11,7%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>141,18%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-39,08%</t>
         </is>
       </c>
     </row>
@@ -918,19 +1444,49 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
+          <t>57,33; 172,15</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>-87,77; -12,91</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>-1,02; 105,04</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 427,99</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>-14,23; 76,24</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>-6,4; 35,02</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>72,7; 207,73</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-73,74; -5,65</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -945,12 +1501,42 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
+          <t>-10,44</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-6,95</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>-0,03</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>7,71</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>12,96</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
         <is>
           <t>-5,03</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-13,32</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-4,71</t>
         </is>
       </c>
     </row>
@@ -968,12 +1554,42 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
+          <t>-46,85; 59,5</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-15,8; 1,6</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
           <t>-10,63; 10,55</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-16,38; 54,52</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>2,25; 21,74</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
         <is>
           <t>-12,8; 2,32</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-36,21; 23,81</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-12,18; 1,94</t>
         </is>
       </c>
     </row>
@@ -991,12 +1607,42 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
+          <t>-24,31%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-16,18%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>-0,24%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>61,5%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>103,39%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
         <is>
           <t>-13,71%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-36,31%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-12,85%</t>
         </is>
       </c>
     </row>
@@ -1014,19 +1660,49 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 147,27</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-32,42; 4,24</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
           <t>-57,18; 193,81</t>
         </is>
       </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 779,44</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>8,02; 396,79</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
         <is>
           <t>-30,3; 7,23</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 66,81</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-29,58; 6,27</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1036,17 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-2,64</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-3,67</t>
+          <t>19,22</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-2,35</t>
+          <t>-1,64</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>11,12</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>-4,96</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>17,8</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1,49</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>12,96</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>-2,32</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 4,84</t>
+          <t>-10,95; 9,89</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-21,06; 14,57</t>
+          <t>-25,11; 59,44</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 4,81</t>
+          <t>-10,45; 8,75</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>-5,08; 31,89</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>2,97; 25,59</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-8,68; 11,13</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-22,95; 50,79</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-10,48; 5,97</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-5,82%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-23,72%</t>
+          <t>47,99%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-5,58%</t>
+          <t>-4,11%</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>224,4%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>359,3%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>4,13%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>35,85%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>-6,41%</t>
         </is>
       </c>
     </row>
@@ -1105,24 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-21,78; 11,61</t>
+          <t>-23,81; 28,87</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-83,66; 540,19</t>
+          <t>-56,76; 153,75</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-23,03; 12,92</t>
+          <t>-22,56; 27,05</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-21,54; 36,18</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-59,2; 157,52</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-24,99; 19,39</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1132,17 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>-6,21</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>-8,52</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>-29,16</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>-14,26</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-6,63</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>-10,23</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 3,63</t>
+          <t>-18,77; 6,05</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 4,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 3,24</t>
+          <t>-19,51; 2,99</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>-61,89; -8,78</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-47,48; 11,37</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-19,37; 5,33</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-19,93; 0,31</t>
         </is>
       </c>
     </row>
@@ -1178,17 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>-11,97%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>-16,44%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-48,89%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-13,39%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>-20,67%</t>
         </is>
       </c>
     </row>
@@ -1201,32 +2087,282 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-32,46; 13,5</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-33,71; 5,66</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-89,04; 149,59</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-34,75; 11,79</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-35,67; 0,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>14,46</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-6,63</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>1,21</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>18,6</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-2,89</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>0,67</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>16,44</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-5,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-2,67; 3,63</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>6,45; 21,43</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-18,9; -0,43</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-2,73; 4,74</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>6,24; 29,91</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-6,48; 0,71</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 3,24</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>10,14; 22,79</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-12,91; -1,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>1,77%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>40,33%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-18,49%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>4,46%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>68,82%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-10,69%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>2,07%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>50,37%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-16,18%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-7,04; 10,68</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>18,57; 61,87</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-51,88; -1,23</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-9,46; 19,11</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>22,6; 117,23</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-22,14; 3,25</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>-5,09; 10,26</t>
         </is>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>31,52; 71,6</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-39,43; -4,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_camb/Q23_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/Q23_R2-Edad-trans_camb.xlsx
@@ -637,7 +637,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,11</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,52</t>
+          <t>4,73</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>16,84</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 11,88</t>
+          <t>-8,86; 10,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 34,15</t>
+          <t>-12,66; 8,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-23,27; 16,39</t>
+          <t>-24,33; 14,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 21,87</t>
+          <t>1,51; 23,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,47; 42,0</t>
+          <t>-6,5; 15,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-25,79; 7,14</t>
+          <t>-25,44; 5,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 13,25</t>
+          <t>-1,46; 13,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,72; 31,57</t>
+          <t>-6,42; 8,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-19,38; 7,73</t>
+          <t>-19,54; 5,42</t>
         </is>
       </c>
     </row>
@@ -743,7 +743,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>36,4%</t>
+          <t>-4,89%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>42,27%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>38,23%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,72; 29,92</t>
+          <t>-18,38; 27,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 84,52</t>
+          <t>-26,09; 22,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-50,79; 40,67</t>
+          <t>-53,89; 33,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 56,75</t>
+          <t>3,15; 59,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,67; 100,9</t>
+          <t>-13,08; 40,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-55,0; 17,95</t>
+          <t>-55,68; 13,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 32,72</t>
+          <t>-2,9; 31,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,21; 76,29</t>
+          <t>-13,58; 21,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-43,31; 18,78</t>
+          <t>-43,15; 13,22</t>
         </is>
       </c>
     </row>
@@ -853,7 +853,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,06</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>31,71</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,78</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 6,33</t>
+          <t>-5,72; 6,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 20,18</t>
+          <t>-5,25; 8,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 8,64</t>
+          <t>-10,1; 9,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 5,09</t>
+          <t>-9,2; 4,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,99; 51,56</t>
+          <t>-4,04; 11,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,12; 6,66</t>
+          <t>-11,4; 6,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 4,2</t>
+          <t>-5,31; 4,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,62; 23,75</t>
+          <t>-2,64; 7,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 4,89</t>
+          <t>-7,86; 5,38</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>20,37%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>113,31%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>44,01%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-18,2; 24,47</t>
+          <t>-17,27; 26,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,99; 71,56</t>
+          <t>-16,17; 30,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-32,16; 31,82</t>
+          <t>-33,51; 34,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,1; 20,82</t>
+          <t>-28,99; 20,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,32; 204,89</t>
+          <t>-12,94; 47,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,76; 27,3</t>
+          <t>-37,97; 23,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-18,06; 15,85</t>
+          <t>-17,22; 17,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,19; 85,23</t>
+          <t>-8,88; 27,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-28,47; 16,59</t>
+          <t>-26,19; 19,32</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>16,21</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,47</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>14,07</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 9,32</t>
+          <t>-3,05; 9,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 31,49</t>
+          <t>-4,82; 8,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 11,88</t>
+          <t>-4,95; 12,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 8,29</t>
+          <t>-6,13; 8,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 34,44</t>
+          <t>-7,39; 6,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,15; 2,79</t>
+          <t>-11,48; 2,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 6,97</t>
+          <t>-2,5; 7,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,41; 26,72</t>
+          <t>-3,78; 6,27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 4,8</t>
+          <t>-5,52; 5,49</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>57,35%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>32,7%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>51,7%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 38,45</t>
+          <t>-9,58; 37,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,27; 119,72</t>
+          <t>-15,43; 33,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-15,28; 45,87</t>
+          <t>-16,17; 50,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,68; 37,68</t>
+          <t>-20,51; 39,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-38,34; 143,92</t>
+          <t>-25,86; 30,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,75; 11,56</t>
+          <t>-38,71; 11,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 28,15</t>
+          <t>-8,29; 28,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,45; 99,96</t>
+          <t>-12,8; 24,92</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-21,48; 18,24</t>
+          <t>-18,66; 22,15</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>39,4</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,15</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>40,37</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 8,73</t>
+          <t>-5,57; 8,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>20,05; 54,31</t>
+          <t>-7,15; 7,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-33,93; -4,37</t>
+          <t>-33,71; -3,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 14,83</t>
+          <t>-0,41; 14,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-21,07; 78,88</t>
+          <t>-6,76; 6,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 10,72</t>
+          <t>-3,22; 10,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 8,89</t>
+          <t>-2,26; 8,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>22,79; 56,23</t>
+          <t>-6,42; 4,45</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-24,16; -1,56</t>
+          <t>-24,55; -1,74</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>114,45%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>32,78%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>141,18%</t>
+          <t>-2,2%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-14,83; 28,51</t>
+          <t>-14,67; 28,62</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>57,33; 172,15</t>
+          <t>-19,06; 25,78</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-87,77; -12,91</t>
+          <t>-86,72; -9,4</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 105,04</t>
+          <t>-2,14; 103,05</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 427,99</t>
+          <t>-31,07; 47,55</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-14,23; 76,24</t>
+          <t>-14,52; 67,86</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 35,02</t>
+          <t>-7,09; 32,31</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>72,7; 207,73</t>
+          <t>-20,28; 17,79</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-73,74; -5,65</t>
+          <t>-76,1; -4,93</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-10,44</t>
+          <t>-3,89</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>7,71</t>
+          <t>8,63</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-13,32</t>
+          <t>-4,52</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-12,98; 5,73</t>
+          <t>-11,99; 5,02</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-46,85; 59,5</t>
+          <t>-13,29; 4,88</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-15,8; 1,6</t>
+          <t>-14,93; 1,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 10,55</t>
+          <t>-11,29; 10,35</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-16,38; 54,52</t>
+          <t>-3,24; 19,39</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,25; 21,74</t>
+          <t>0,77; 21,1</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-12,8; 2,32</t>
+          <t>-12,13; 2,05</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-36,21; 23,81</t>
+          <t>-11,55; 2,67</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-12,18; 1,94</t>
+          <t>-11,12; 2,45</t>
         </is>
       </c>
     </row>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-24,31%</t>
+          <t>-9,07%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>61,5%</t>
+          <t>68,84%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-36,31%</t>
+          <t>-12,31%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-26,85; 15,01</t>
+          <t>-25,85; 13,01</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 147,27</t>
+          <t>-27,7; 12,91</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-32,42; 4,24</t>
+          <t>-31,39; 3,99</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-57,18; 193,81</t>
+          <t>-56,13; 184,67</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 779,44</t>
+          <t>-19,6; 339,21</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>8,02; 396,79</t>
+          <t>-1,84; 343,32</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-30,3; 7,23</t>
+          <t>-30,69; 6,55</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 66,81</t>
+          <t>-29,04; 7,65</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-29,58; 6,27</t>
+          <t>-27,19; 7,53</t>
         </is>
       </c>
     </row>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>19,22</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-4,96</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>12,96</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 9,89</t>
+          <t>-10,62; 11,06</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-25,11; 59,44</t>
+          <t>-9,51; 13,01</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,45; 8,75</t>
+          <t>-12,23; 7,05</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 31,89</t>
+          <t>-5,04; 32,58</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,46; 11,13</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,97; 25,59</t>
+          <t>0,27; 25,92</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 11,13</t>
+          <t>-8,45; 11,81</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-22,95; 50,79</t>
+          <t>-11,82; 7,12</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 5,97</t>
+          <t>-10,99; 6,11</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>47,99%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>47,56%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>35,85%</t>
+          <t>-4,86%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
@@ -1871,17 +1871,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-23,81; 28,87</t>
+          <t>-22,53; 32,27</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-56,76; 153,75</t>
+          <t>-21,32; 38,52</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-22,56; 27,05</t>
+          <t>-25,88; 20,55</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1901,17 +1901,17 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-21,54; 36,18</t>
+          <t>-20,42; 39,25</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-59,2; 157,52</t>
+          <t>-28,03; 23,05</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-24,99; 19,39</t>
+          <t>-26,14; 19,8</t>
         </is>
       </c>
     </row>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-7,6</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-29,16</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-8,7</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-18,77; 6,05</t>
+          <t>-18,21; 5,87</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,81; 3,84</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-19,51; 2,99</t>
+          <t>-18,55; 3,09</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-61,89; -8,78</t>
+          <t>-64,08; -9,24</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,93; -8,84</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-47,48; 11,37</t>
+          <t>-47,67; 11,3</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-19,37; 5,33</t>
+          <t>-18,91; 4,72</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,7; 2,56</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-19,93; 0,31</t>
+          <t>-20,84; 0,57</t>
         </is>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,65%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,57%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-32,46; 13,5</t>
+          <t>-31,26; 13,28</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
+          <t>-34,76; 8,47</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-32,94; 5,94</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-33,71; 5,66</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="G31" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="H31" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-89,04; 149,59</t>
-        </is>
-      </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-34,75; 11,79</t>
+          <t>-32,95; 12,07</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,49; 6,19</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-35,67; 0,7</t>
+          <t>-37,42; 1,21</t>
         </is>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>14,46</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
@@ -2164,7 +2164,7 @@
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>18,6</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
@@ -2179,7 +2179,7 @@
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>16,44</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 3,63</t>
+          <t>-2,73; 3,53</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>6,45; 21,43</t>
+          <t>-2,85; 3,69</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-18,9; -0,43</t>
+          <t>-17,61; -0,43</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 4,74</t>
+          <t>-2,57; 5,01</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>6,24; 29,91</t>
+          <t>-4,77; 2,74</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 0,71</t>
+          <t>-6,82; 0,63</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 3,24</t>
+          <t>-1,92; 2,99</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>10,14; 22,79</t>
+          <t>-3,18; 1,79</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-12,91; -1,5</t>
+          <t>-13,67; -1,54</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>40,33%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>68,82%</t>
+          <t>-3,89%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>50,37%</t>
+          <t>-1,91%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 10,68</t>
+          <t>-7,28; 10,35</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>18,57; 61,87</t>
+          <t>-7,63; 10,84</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-51,88; -1,23</t>
+          <t>-49,18; -1,21</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 19,11</t>
+          <t>-8,76; 19,97</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>22,6; 117,23</t>
+          <t>-16,39; 11,15</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-22,14; 3,25</t>
+          <t>-23,09; 2,77</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 10,26</t>
+          <t>-5,84; 9,41</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>31,52; 71,6</t>
+          <t>-9,53; 5,67</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-39,43; -4,9</t>
+          <t>-40,46; -4,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Q23_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/Q23_R2-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -63,13 +63,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -504,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,9 +516,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,21 +531,18 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +559,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2007</t>
+          <t>2012/2007</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>2012/2007</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2016/2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2023/2007</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2012/2007</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2016/2007</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2023/2007</t>
         </is>
       </c>
     </row>
@@ -615,9 +587,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -642,37 +611,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,76</t>
+          <t>11,57</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,57</t>
+          <t>4,73</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,73</t>
+          <t>5,92</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-10,07</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>5,92</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
           <t>0,95</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-7,11</t>
         </is>
       </c>
     </row>
@@ -695,37 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-24,33; 14,32</t>
+          <t>1,51; 23,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,51; 23,02</t>
+          <t>-6,5; 15,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 15,77</t>
+          <t>-1,46; 13,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-25,44; 5,36</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-1,46; 13,07</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
           <t>-6,42; 8,82</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-19,54; 5,42</t>
         </is>
       </c>
     </row>
@@ -748,37 +687,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-10,76%</t>
+          <t>26,41%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-22,97%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>13,45%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
           <t>2,15%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-16,14%</t>
         </is>
       </c>
     </row>
@@ -801,37 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-53,89; 33,43</t>
+          <t>3,15; 59,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,15; 59,99</t>
+          <t>-13,08; 40,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 40,16</t>
+          <t>-2,9; 31,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-55,68; 13,77</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-2,9; 31,93</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
           <t>-13,58; 21,5</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-43,15; 13,22</t>
         </is>
       </c>
     </row>
@@ -858,37 +767,22 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-2,38</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,38</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,88</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,4</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-0,65</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
           <t>2,48</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-1,67</t>
         </is>
       </c>
     </row>
@@ -911,37 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 9,54</t>
+          <t>-9,2; 4,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 4,78</t>
+          <t>-4,04; 11,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 11,77</t>
+          <t>-5,31; 4,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 6,16</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-5,31; 4,63</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
           <t>-2,64; 7,33</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-7,86; 5,38</t>
         </is>
       </c>
     </row>
@@ -964,37 +843,22 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,87%</t>
+          <t>-8,51%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-8,51%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,88%</t>
+          <t>-2,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-8,58%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-2,24%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
           <t>8,55%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-5,76%</t>
         </is>
       </c>
     </row>
@@ -1017,37 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-33,51; 34,08</t>
+          <t>-28,99; 20,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,99; 20,29</t>
+          <t>-12,94; 47,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,94; 47,9</t>
+          <t>-17,22; 17,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-37,97; 23,86</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-17,22; 17,32</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
           <t>-8,88; 27,76</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-26,19; 19,32</t>
         </is>
       </c>
     </row>
@@ -1074,37 +923,22 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,44</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>2,25</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
           <t>1,2</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-0,67</t>
         </is>
       </c>
     </row>
@@ -1127,37 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 12,33</t>
+          <t>-6,13; 8,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 8,9</t>
+          <t>-7,39; 6,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 6,88</t>
+          <t>-2,5; 7,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 2,5</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-2,5; 7,19</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
           <t>-3,78; 6,27</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-5,52; 5,49</t>
         </is>
       </c>
     </row>
@@ -1180,37 +999,22 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,75%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-17,16%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>8,26%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
           <t>4,41%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>-2,46%</t>
         </is>
       </c>
     </row>
@@ -1233,37 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-16,17; 50,38</t>
+          <t>-20,51; 39,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-20,51; 39,02</t>
+          <t>-25,86; 30,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-25,86; 30,9</t>
+          <t>-8,29; 28,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,71; 11,12</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-8,29; 28,63</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
           <t>-12,8; 24,92</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>-18,66; 22,15</t>
         </is>
       </c>
     </row>
@@ -1290,37 +1079,22 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-19,36</t>
+          <t>7,45</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,45</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,73</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>3,35</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
           <t>-0,63</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>-11,17</t>
         </is>
       </c>
     </row>
@@ -1343,37 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-33,71; -3,09</t>
+          <t>-0,41; 14,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 14,67</t>
+          <t>-6,76; 6,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 6,99</t>
+          <t>-2,26; 8,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 10,07</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-2,26; 8,27</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
           <t>-6,42; 4,45</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>-24,55; -1,74</t>
         </is>
       </c>
     </row>
@@ -1396,37 +1155,22 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-56,23%</t>
+          <t>39,71%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>39,71%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>11,7%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
           <t>-2,2%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>-39,08%</t>
         </is>
       </c>
     </row>
@@ -1449,37 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-86,72; -9,4</t>
+          <t>-2,14; 103,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 103,05</t>
+          <t>-31,07; 47,55</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-31,07; 47,55</t>
+          <t>-7,09; 32,31</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-14,52; 67,86</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>-7,09; 32,31</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
           <t>-20,28; 17,79</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>-76,1; -4,93</t>
         </is>
       </c>
     </row>
@@ -1506,37 +1235,22 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-6,95</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>8,63</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>8,63</t>
+          <t>-5,03</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>12,96</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>-5,03</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
           <t>-4,52</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-4,71</t>
         </is>
       </c>
     </row>
@@ -1559,37 +1273,22 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-14,93; 1,37</t>
+          <t>-11,29; 10,35</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-11,29; 10,35</t>
+          <t>-3,24; 19,39</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 19,39</t>
+          <t>-12,13; 2,05</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,77; 21,1</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-12,13; 2,05</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
           <t>-11,55; 2,67</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>-11,12; 2,45</t>
         </is>
       </c>
     </row>
@@ -1612,37 +1311,22 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-16,18%</t>
+          <t>-0,24%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-0,24%</t>
+          <t>68,84%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>68,84%</t>
+          <t>-13,71%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>103,39%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>-13,71%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
           <t>-12,31%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>-12,85%</t>
         </is>
       </c>
     </row>
@@ -1665,37 +1349,22 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-31,39; 3,99</t>
+          <t>-56,13; 184,67</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-56,13; 184,67</t>
+          <t>-19,6; 339,21</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-19,6; 339,21</t>
+          <t>-30,69; 6,55</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 343,32</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>-30,69; 6,55</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
           <t>-29,04; 7,65</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>-27,19; 7,53</t>
         </is>
       </c>
     </row>
@@ -1722,37 +1391,22 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>11,12</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>11,12</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>17,8</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>1,49</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
           <t>-1,76</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-2,32</t>
         </is>
       </c>
     </row>
@@ -1775,37 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-12,23; 7,05</t>
+          <t>-5,04; 32,58</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 32,58</t>
+          <t>-14,46; 11,13</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-14,46; 11,13</t>
+          <t>-8,45; 11,81</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,27; 25,92</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-8,45; 11,81</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
           <t>-11,82; 7,12</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-10,99; 6,11</t>
         </is>
       </c>
     </row>
@@ -1828,37 +1467,22 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-4,11%</t>
+          <t>224,4%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>224,4%</t>
+          <t>47,56%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>47,56%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>359,3%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>4,13%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
           <t>-4,86%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-6,41%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1505,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-25,88; 20,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1891,27 +1515,12 @@
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,42; 39,25</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-20,42; 39,25</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
           <t>-28,03; 23,05</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-26,14; 19,8</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1547,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-8,52</t>
+          <t>-29,16</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1948,27 +1557,12 @@
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-29,16</t>
+          <t>-6,63</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-14,26</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>-6,63</t>
-        </is>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
           <t>-8,7</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>-10,23</t>
         </is>
       </c>
     </row>
@@ -1991,37 +1585,22 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-18,55; 3,09</t>
+          <t>-64,08; -9,24</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-64,08; -9,24</t>
+          <t>-58,93; -8,84</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-58,93; -8,84</t>
+          <t>-18,91; 4,72</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-47,67; 11,3</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>-18,91; 4,72</t>
-        </is>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
           <t>-20,7; 2,56</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="inlineStr">
-        <is>
-          <t>-20,84; 0,57</t>
         </is>
       </c>
     </row>
@@ -2044,7 +1623,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-16,44%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2054,27 +1633,12 @@
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-13,39%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-48,89%</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>-13,39%</t>
-        </is>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
           <t>-17,57%</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="inlineStr">
-        <is>
-          <t>-20,67%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +1661,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-32,94; 5,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2107,27 +1671,12 @@
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,95; 12,07</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
-        <is>
-          <t>-32,95; 12,07</t>
-        </is>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
           <t>-36,49; 6,19</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-37,42; 1,21</t>
         </is>
       </c>
     </row>
@@ -2154,37 +1703,22 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-6,63</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="inlineStr">
-        <is>
-          <t>0,67</t>
-        </is>
-      </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
           <t>-0,62</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="inlineStr">
-        <is>
-          <t>-5,28</t>
         </is>
       </c>
     </row>
@@ -2207,37 +1741,22 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-17,61; -0,43</t>
+          <t>-2,57; 5,01</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 5,01</t>
+          <t>-4,77; 2,74</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 2,74</t>
+          <t>-1,92; 2,99</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 0,63</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="inlineStr">
-        <is>
-          <t>-1,92; 2,99</t>
-        </is>
-      </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
           <t>-3,18; 1,79</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="inlineStr">
-        <is>
-          <t>-13,67; -1,54</t>
         </is>
       </c>
     </row>
@@ -2260,37 +1779,22 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-18,49%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>-3,89%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>-3,89%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-10,69%</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="inlineStr">
-        <is>
-          <t>2,07%</t>
-        </is>
-      </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
           <t>-1,91%</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="inlineStr">
-        <is>
-          <t>-16,18%</t>
         </is>
       </c>
     </row>
@@ -2313,37 +1817,22 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-49,18; -1,21</t>
+          <t>-8,76; 19,97</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 19,97</t>
+          <t>-16,39; 11,15</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-16,39; 11,15</t>
+          <t>-5,84; 9,41</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-23,09; 2,77</t>
-        </is>
-      </c>
-      <c r="I35" s="2" t="inlineStr">
-        <is>
-          <t>-5,84; 9,41</t>
-        </is>
-      </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
           <t>-9,53; 5,67</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="inlineStr">
-        <is>
-          <t>-40,46; -4,74</t>
         </is>
       </c>
     </row>
@@ -2358,11 +1847,11 @@
   <mergeCells count="12">
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
